--- a/biology/Biologie cellulaire et moléculaire/Far-eastern_blot/Far-eastern_blot.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Far-eastern_blot/Far-eastern_blot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le far-eastern blot est une technique de biologie moléculaire par transfert de molécules développée par T. Taki en 1994
-[1],[2] pour analyser les lipides puis adaptée à d'autres molécules (métabolites, hormones, médicaments, etc.)
+, pour analyser les lipides puis adaptée à d'autres molécules (métabolites, hormones, médicaments, etc.)
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette technique se déroule en 3 étapes : la séparation des molécules à analyser, le transfert sur une membrane de PVDF puis la détection de ces molécules. Contrairement aux autres techniques de transfert qui utilisent préférentiellement l'électrophorèse comme méthode de séparation, le far-eastern blot utilise la chromatographie sur couche mince haute-performance, compatible avec les molécules hydrophobes ou  non-ioniques. Après le transfert sur une membrane, plusieurs méthodes de détection peuvent être utilisées :
 des tests  de liaison de ligands : on incube la membrane avec molécules marquées susceptibles d'interagir avec les molécules à analyser. On peut étudier ainsi l'interaction des lipides d'une membrane cellulaire avec différents types de ligands (anticorps, lectines, bactéries, virus, toxines, etc.) ou l'action d'enzymes sur une membrane cellulaire.
-l'identification directe par spectrométrie de masse[3], qui peut apporter des informations sur la structure des molécules à analyser.
+l'identification directe par spectrométrie de masse, qui peut apporter des informations sur la structure des molécules à analyser.
 Il est également possible d'utiliser cette technique sans séparation (technique du dot blot).
 </t>
         </is>
